--- a/tradingview/stochastic_rsi/candels.xlsx
+++ b/tradingview/stochastic_rsi/candels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J213"/>
+  <dimension ref="A1:J214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7603,25 +7603,59 @@
         <v>48767.84</v>
       </c>
       <c r="D213" t="n">
-        <v>48888.61</v>
+        <v>51900</v>
       </c>
       <c r="E213" t="n">
         <v>46512</v>
       </c>
       <c r="F213" t="n">
-        <v>47200.01</v>
+        <v>51756.88</v>
       </c>
       <c r="G213" t="n">
-        <v>102296.34031</v>
+        <v>327484.443638</v>
       </c>
       <c r="H213" t="n">
-        <v>56.98996925531426</v>
+        <v>61.78407283622579</v>
       </c>
       <c r="I213" t="n">
-        <v>93.718394</v>
+        <v>98.840744</v>
       </c>
       <c r="J213" t="n">
-        <v>92.575507</v>
+        <v>94.282957</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>06-09-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>51756.88</v>
+      </c>
+      <c r="D214" t="n">
+        <v>51994.37</v>
+      </c>
+      <c r="E214" t="n">
+        <v>51447.89</v>
+      </c>
+      <c r="F214" t="n">
+        <v>51782.83</v>
+      </c>
+      <c r="G214" t="n">
+        <v>14115.172247</v>
+      </c>
+      <c r="H214" t="n">
+        <v>61.80755464061835</v>
+      </c>
+      <c r="I214" t="n">
+        <v>98.840744</v>
+      </c>
+      <c r="J214" t="n">
+        <v>98.840744</v>
       </c>
     </row>
   </sheetData>
